--- a/biology/Zoologie/Hapalémur/Hapalémur.xlsx
+++ b/biology/Zoologie/Hapalémur/Hapalémur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur</t>
+          <t>Hapalémur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hapalémurs (Hapalemur) forment un genre de lémuriens. Ces primates de taille moyenne vivent exclusivement sur l'île de Madagascar.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur</t>
+          <t>Hapalémur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hapalémurs sont caractérisés par une fourrure brune-grise, qui varie pour chaque espèce. Leur museau est court et leurs oreilles petites, rondes et poilues. Les longueurs varient de 26 à 46 cm, leurs queues sont toutes aussi longues ou plus. Il pèsent jusqu'à 2.5 kg
 Les Hapalémurs préfèrent les forêts tropicales humides où poussent les bambous. Même s'ils peuvent être actifs à toute heure de la journée, ils sont essentiellement actifs juste après l'aube. Ils vivent surtout dans les arbres, mais peuvent toutefois descendre à terre.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hapal%C3%A9mur</t>
+          <t>Hapalémur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (5 septembre 2017)[1] :
-Prolemur Gray, 1871 est un synonyme de Hapalemur I. Geoffroy Saint-Hilaire, 1851[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (5 septembre 2017) :
+Prolemur Gray, 1871 est un synonyme de Hapalemur I. Geoffroy Saint-Hilaire, 1851.
 </t>
         </is>
       </c>
